--- a/Data/html_data_Sales_and_Stock.xlsx
+++ b/Data/html_data_Sales_and_Stock.xlsx
@@ -319,12 +319,12 @@
     <t>Freshtear 10ml Ophthalmic Solution</t>
   </si>
   <si>
+    <t>Levomax 5ml Ophthalmic Solution</t>
+  </si>
+  <si>
     <t>Levomax TS 5ml Ophthalmic Solution</t>
   </si>
   <si>
-    <t>Levomax 5ml Ophthalmic Solution</t>
-  </si>
-  <si>
     <t>Lumigan 0.03% 3 ml</t>
   </si>
   <si>
@@ -337,10 +337,10 @@
     <t>Relestat 5 ml</t>
   </si>
   <si>
+    <t>Romfen S 5ml Opthalmic Solution</t>
+  </si>
+  <si>
     <t>Romfen 5ml Ophthalmic Solution</t>
-  </si>
-  <si>
-    <t>Romfen S 5ml Opthalmic Solution</t>
   </si>
   <si>
     <t>Visomox 5ml Ophthalmic Solution</t>
@@ -1994,10 +1994,10 @@
         <v>154</v>
       </c>
       <c r="G6">
-        <v>7060</v>
+        <v>7059</v>
       </c>
       <c r="H6">
-        <v>7060</v>
+        <v>7059</v>
       </c>
       <c r="I6">
         <v>5460</v>
@@ -2236,37 +2236,37 @@
         <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>1320</v>
+        <v>1352</v>
       </c>
       <c r="H7">
-        <v>1320</v>
+        <v>1352</v>
       </c>
       <c r="I7">
-        <v>894</v>
+        <v>546</v>
       </c>
       <c r="J7">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="L7">
-        <v>894</v>
+        <v>479</v>
       </c>
       <c r="M7">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="N7">
-        <v>3247</v>
+        <v>2796</v>
       </c>
       <c r="O7">
-        <v>4141</v>
+        <v>3342</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -2278,196 +2278,196 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.120879</v>
+        <v>0.263736</v>
       </c>
       <c r="T7">
-        <v>0.615384</v>
+        <v>0.934065</v>
       </c>
       <c r="U7">
-        <v>1.054945</v>
+        <v>1.010989</v>
       </c>
       <c r="V7">
-        <v>0.956043</v>
+        <v>0.285714</v>
       </c>
       <c r="W7">
-        <v>0.21978</v>
+        <v>0.373626</v>
       </c>
       <c r="X7">
-        <v>0.483516</v>
+        <v>0.32967</v>
       </c>
       <c r="Y7">
-        <v>0.494505</v>
+        <v>0.846153</v>
       </c>
       <c r="Z7">
         <v>0.120879</v>
       </c>
       <c r="AA7">
-        <v>0.76923</v>
+        <v>1.54945</v>
       </c>
       <c r="AB7">
         <v>0.043956</v>
       </c>
       <c r="AC7">
-        <v>0.175824</v>
+        <v>0.186813</v>
       </c>
       <c r="AD7">
-        <v>0.516483</v>
+        <v>1.186813</v>
       </c>
       <c r="AE7">
-        <v>0.967032</v>
+        <v>1.153846</v>
       </c>
       <c r="AF7">
-        <v>0.010989</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.681318</v>
+        <v>0.461538</v>
       </c>
       <c r="AH7">
-        <v>2.868131</v>
+        <v>0.494505</v>
       </c>
       <c r="AI7">
-        <v>0.296703</v>
+        <v>0.428571</v>
       </c>
       <c r="AJ7">
-        <v>0.032967</v>
+        <v>0.131868</v>
       </c>
       <c r="AK7">
-        <v>0.802197</v>
+        <v>1.065934</v>
       </c>
       <c r="AL7">
-        <v>0.263736</v>
+        <v>0.307692</v>
       </c>
       <c r="AM7">
-        <v>1.164835</v>
+        <v>0.483516</v>
       </c>
       <c r="AN7">
-        <v>0.362637</v>
+        <v>1.494505</v>
       </c>
       <c r="AO7">
-        <v>0.153846</v>
+        <v>0.208791</v>
       </c>
       <c r="AP7">
-        <v>0.021978</v>
+        <v>0.043956</v>
       </c>
       <c r="AQ7">
-        <v>5.43956</v>
+        <v>0.615384</v>
       </c>
       <c r="AR7">
-        <v>1.120879</v>
+        <v>0.340659</v>
       </c>
       <c r="AS7">
-        <v>0.142857</v>
+        <v>0.120879</v>
       </c>
       <c r="AT7">
-        <v>0.560439</v>
+        <v>0.10989</v>
       </c>
       <c r="AU7">
-        <v>0.054945</v>
+        <v>0.208791</v>
       </c>
       <c r="AV7">
-        <v>0.07692300000000001</v>
+        <v>0.494505</v>
       </c>
       <c r="AW7">
-        <v>8.252746999999999</v>
+        <v>0.164835</v>
       </c>
       <c r="AX7">
         <v>0</v>
       </c>
       <c r="AY7">
-        <v>4011</v>
+        <v>3255</v>
       </c>
       <c r="AZ7">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="BA7">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="BB7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BC7">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="BD7">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="BE7">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="BF7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BG7">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="BH7">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="BI7">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="BJ7">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="BK7">
+        <v>180</v>
+      </c>
+      <c r="BL7">
+        <v>247</v>
+      </c>
+      <c r="BM7">
+        <v>119</v>
+      </c>
+      <c r="BN7">
+        <v>70</v>
+      </c>
+      <c r="BO7">
+        <v>56</v>
+      </c>
+      <c r="BP7">
+        <v>98</v>
+      </c>
+      <c r="BQ7">
+        <v>145</v>
+      </c>
+      <c r="BR7">
+        <v>74</v>
+      </c>
+      <c r="BS7">
+        <v>238</v>
+      </c>
+      <c r="BT7">
+        <v>108</v>
+      </c>
+      <c r="BU7">
+        <v>19</v>
+      </c>
+      <c r="BV7">
+        <v>87</v>
+      </c>
+      <c r="BW7">
+        <v>126</v>
+      </c>
+      <c r="BX7">
+        <v>76</v>
+      </c>
+      <c r="BY7">
         <v>69</v>
       </c>
-      <c r="BL7">
-        <v>195</v>
-      </c>
-      <c r="BM7">
-        <v>135</v>
-      </c>
-      <c r="BN7">
-        <v>144</v>
-      </c>
-      <c r="BO7">
-        <v>73</v>
-      </c>
-      <c r="BP7">
-        <v>141</v>
-      </c>
-      <c r="BQ7">
-        <v>232</v>
-      </c>
-      <c r="BR7">
-        <v>98</v>
-      </c>
-      <c r="BS7">
-        <v>217</v>
-      </c>
-      <c r="BT7">
-        <v>34</v>
-      </c>
-      <c r="BU7">
-        <v>158</v>
-      </c>
-      <c r="BV7">
-        <v>130</v>
-      </c>
-      <c r="BW7">
-        <v>73</v>
-      </c>
-      <c r="BX7">
-        <v>143</v>
-      </c>
-      <c r="BY7">
-        <v>89</v>
-      </c>
       <c r="BZ7">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="CA7">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="CB7">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="CC7">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="CD7">
-        <v>187</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:82">
@@ -2484,37 +2484,37 @@
         <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G8">
-        <v>1352</v>
+        <v>1320</v>
       </c>
       <c r="H8">
-        <v>1352</v>
+        <v>1320</v>
       </c>
       <c r="I8">
-        <v>546</v>
+        <v>894</v>
       </c>
       <c r="J8">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="K8">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="L8">
-        <v>479</v>
+        <v>894</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="N8">
-        <v>2796</v>
+        <v>3247</v>
       </c>
       <c r="O8">
-        <v>3342</v>
+        <v>4141</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2526,196 +2526,196 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.263736</v>
+        <v>0.120879</v>
       </c>
       <c r="T8">
-        <v>0.934065</v>
+        <v>0.615384</v>
       </c>
       <c r="U8">
-        <v>1.010989</v>
+        <v>1.054945</v>
       </c>
       <c r="V8">
-        <v>0.285714</v>
+        <v>0.956043</v>
       </c>
       <c r="W8">
-        <v>0.373626</v>
+        <v>0.21978</v>
       </c>
       <c r="X8">
-        <v>0.32967</v>
+        <v>0.483516</v>
       </c>
       <c r="Y8">
-        <v>0.846153</v>
+        <v>0.494505</v>
       </c>
       <c r="Z8">
         <v>0.120879</v>
       </c>
       <c r="AA8">
-        <v>1.54945</v>
+        <v>0.76923</v>
       </c>
       <c r="AB8">
         <v>0.043956</v>
       </c>
       <c r="AC8">
-        <v>0.186813</v>
+        <v>0.175824</v>
       </c>
       <c r="AD8">
-        <v>1.186813</v>
+        <v>0.516483</v>
       </c>
       <c r="AE8">
-        <v>1.153846</v>
+        <v>0.967032</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>0.010989</v>
       </c>
       <c r="AG8">
-        <v>0.461538</v>
+        <v>0.681318</v>
       </c>
       <c r="AH8">
-        <v>0.494505</v>
+        <v>2.868131</v>
       </c>
       <c r="AI8">
-        <v>0.428571</v>
+        <v>0.296703</v>
       </c>
       <c r="AJ8">
-        <v>0.131868</v>
+        <v>0.032967</v>
       </c>
       <c r="AK8">
-        <v>1.065934</v>
+        <v>0.802197</v>
       </c>
       <c r="AL8">
-        <v>0.307692</v>
+        <v>0.263736</v>
       </c>
       <c r="AM8">
-        <v>0.483516</v>
+        <v>1.164835</v>
       </c>
       <c r="AN8">
-        <v>1.494505</v>
+        <v>0.362637</v>
       </c>
       <c r="AO8">
-        <v>0.208791</v>
+        <v>0.153846</v>
       </c>
       <c r="AP8">
-        <v>0.043956</v>
+        <v>0.021978</v>
       </c>
       <c r="AQ8">
-        <v>0.615384</v>
+        <v>5.43956</v>
       </c>
       <c r="AR8">
-        <v>0.340659</v>
+        <v>1.120879</v>
       </c>
       <c r="AS8">
-        <v>0.120879</v>
+        <v>0.142857</v>
       </c>
       <c r="AT8">
-        <v>0.10989</v>
+        <v>0.560439</v>
       </c>
       <c r="AU8">
-        <v>0.208791</v>
+        <v>0.054945</v>
       </c>
       <c r="AV8">
-        <v>0.494505</v>
+        <v>0.07692300000000001</v>
       </c>
       <c r="AW8">
-        <v>0.164835</v>
+        <v>8.252746999999999</v>
       </c>
       <c r="AX8">
         <v>0</v>
       </c>
       <c r="AY8">
-        <v>3255</v>
+        <v>4011</v>
       </c>
       <c r="AZ8">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="BA8">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="BB8">
+        <v>72</v>
+      </c>
+      <c r="BC8">
+        <v>131</v>
+      </c>
+      <c r="BD8">
+        <v>78</v>
+      </c>
+      <c r="BE8">
+        <v>214</v>
+      </c>
+      <c r="BF8">
+        <v>99</v>
+      </c>
+      <c r="BG8">
+        <v>121</v>
+      </c>
+      <c r="BH8">
+        <v>110</v>
+      </c>
+      <c r="BI8">
+        <v>167</v>
+      </c>
+      <c r="BJ8">
+        <v>140</v>
+      </c>
+      <c r="BK8">
+        <v>69</v>
+      </c>
+      <c r="BL8">
+        <v>195</v>
+      </c>
+      <c r="BM8">
+        <v>135</v>
+      </c>
+      <c r="BN8">
+        <v>144</v>
+      </c>
+      <c r="BO8">
         <v>73</v>
       </c>
-      <c r="BC8">
-        <v>71</v>
-      </c>
-      <c r="BD8">
-        <v>110</v>
-      </c>
-      <c r="BE8">
-        <v>40</v>
-      </c>
-      <c r="BF8">
+      <c r="BP8">
+        <v>141</v>
+      </c>
+      <c r="BQ8">
+        <v>232</v>
+      </c>
+      <c r="BR8">
         <v>98</v>
       </c>
-      <c r="BG8">
-        <v>123</v>
-      </c>
-      <c r="BH8">
-        <v>5</v>
-      </c>
-      <c r="BI8">
+      <c r="BS8">
+        <v>217</v>
+      </c>
+      <c r="BT8">
+        <v>34</v>
+      </c>
+      <c r="BU8">
+        <v>158</v>
+      </c>
+      <c r="BV8">
+        <v>130</v>
+      </c>
+      <c r="BW8">
+        <v>73</v>
+      </c>
+      <c r="BX8">
+        <v>143</v>
+      </c>
+      <c r="BY8">
+        <v>89</v>
+      </c>
+      <c r="BZ8">
         <v>192</v>
       </c>
-      <c r="BJ8">
-        <v>152</v>
-      </c>
-      <c r="BK8">
-        <v>180</v>
-      </c>
-      <c r="BL8">
-        <v>247</v>
-      </c>
-      <c r="BM8">
-        <v>119</v>
-      </c>
-      <c r="BN8">
-        <v>70</v>
-      </c>
-      <c r="BO8">
-        <v>56</v>
-      </c>
-      <c r="BP8">
-        <v>98</v>
-      </c>
-      <c r="BQ8">
-        <v>145</v>
-      </c>
-      <c r="BR8">
-        <v>74</v>
-      </c>
-      <c r="BS8">
-        <v>238</v>
-      </c>
-      <c r="BT8">
-        <v>108</v>
-      </c>
-      <c r="BU8">
-        <v>19</v>
-      </c>
-      <c r="BV8">
-        <v>87</v>
-      </c>
-      <c r="BW8">
-        <v>126</v>
-      </c>
-      <c r="BX8">
-        <v>76</v>
-      </c>
-      <c r="BY8">
-        <v>69</v>
-      </c>
-      <c r="BZ8">
-        <v>42</v>
-      </c>
       <c r="CA8">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="CB8">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="CC8">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="CD8">
-        <v>268</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:82">
@@ -2986,10 +2986,10 @@
         <v>23</v>
       </c>
       <c r="G10">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H10">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="I10">
         <v>866</v>
@@ -3724,238 +3724,238 @@
         <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F13">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>1375</v>
+      </c>
+      <c r="H13">
+        <v>1375</v>
+      </c>
+      <c r="I13">
+        <v>1477</v>
+      </c>
+      <c r="J13">
+        <v>107</v>
+      </c>
+      <c r="K13">
+        <v>107</v>
+      </c>
+      <c r="L13">
+        <v>1089</v>
+      </c>
+      <c r="M13">
+        <v>79</v>
+      </c>
+      <c r="N13">
+        <v>5393</v>
+      </c>
+      <c r="O13">
+        <v>6870</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.07692300000000001</v>
+      </c>
+      <c r="T13">
+        <v>0.450549</v>
+      </c>
+      <c r="U13">
+        <v>1.208791</v>
+      </c>
+      <c r="V13">
+        <v>0.164835</v>
+      </c>
+      <c r="W13">
+        <v>0.494505</v>
+      </c>
+      <c r="X13">
+        <v>1.956043</v>
+      </c>
+      <c r="Y13">
+        <v>0.087912</v>
+      </c>
+      <c r="Z13">
+        <v>0.241758</v>
+      </c>
+      <c r="AA13">
+        <v>0.538461</v>
+      </c>
+      <c r="AB13">
+        <v>0.32967</v>
+      </c>
+      <c r="AC13">
+        <v>0.208791</v>
+      </c>
+      <c r="AD13">
+        <v>4.296703</v>
+      </c>
+      <c r="AE13">
+        <v>3.76923</v>
+      </c>
+      <c r="AF13">
+        <v>0.06593400000000001</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>1.483516</v>
+      </c>
+      <c r="AI13">
+        <v>6.076923</v>
+      </c>
+      <c r="AJ13">
+        <v>3.912087</v>
+      </c>
+      <c r="AK13">
+        <v>0.901098</v>
+      </c>
+      <c r="AL13">
+        <v>1.010989</v>
+      </c>
+      <c r="AM13">
+        <v>2.043956</v>
+      </c>
+      <c r="AN13">
+        <v>0.21978</v>
+      </c>
+      <c r="AO13">
+        <v>0.780219</v>
+      </c>
+      <c r="AP13">
+        <v>2.098901</v>
+      </c>
+      <c r="AQ13">
+        <v>0.06593400000000001</v>
+      </c>
+      <c r="AR13">
+        <v>0.285714</v>
+      </c>
+      <c r="AS13">
+        <v>0.65934</v>
+      </c>
+      <c r="AT13">
+        <v>0.384615</v>
+      </c>
+      <c r="AU13">
+        <v>0.472527</v>
+      </c>
+      <c r="AV13">
+        <v>0.010989</v>
+      </c>
+      <c r="AW13">
+        <v>0.846153</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>6726</v>
+      </c>
+      <c r="AZ13">
+        <v>198</v>
+      </c>
+      <c r="BA13">
+        <v>113</v>
+      </c>
+      <c r="BB13">
+        <v>92</v>
+      </c>
+      <c r="BC13">
+        <v>210</v>
+      </c>
+      <c r="BD13">
+        <v>352</v>
+      </c>
+      <c r="BE13">
+        <v>137</v>
+      </c>
+      <c r="BF13">
+        <v>167</v>
+      </c>
+      <c r="BG13">
+        <v>221</v>
+      </c>
+      <c r="BH13">
+        <v>139</v>
+      </c>
+      <c r="BI13">
+        <v>165</v>
+      </c>
+      <c r="BJ13">
+        <v>240</v>
+      </c>
+      <c r="BK13">
+        <v>148</v>
+      </c>
+      <c r="BL13">
+        <v>281</v>
+      </c>
+      <c r="BM13">
+        <v>210</v>
+      </c>
+      <c r="BN13">
+        <v>205</v>
+      </c>
+      <c r="BO13">
+        <v>55</v>
+      </c>
+      <c r="BP13">
+        <v>1361</v>
+      </c>
+      <c r="BQ13">
+        <v>43</v>
+      </c>
+      <c r="BR13">
+        <v>138</v>
+      </c>
+      <c r="BS13">
+        <v>792</v>
+      </c>
+      <c r="BT13">
         <v>21</v>
       </c>
-      <c r="G13">
-        <v>1512</v>
-      </c>
-      <c r="H13">
-        <v>1512</v>
-      </c>
-      <c r="I13">
-        <v>558</v>
-      </c>
-      <c r="J13">
-        <v>36</v>
-      </c>
-      <c r="K13">
-        <v>36</v>
-      </c>
-      <c r="L13">
-        <v>666</v>
-      </c>
-      <c r="M13">
-        <v>44</v>
-      </c>
-      <c r="N13">
-        <v>6835</v>
-      </c>
-      <c r="O13">
-        <v>7393</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0.10989</v>
-      </c>
-      <c r="T13">
-        <v>2.516483</v>
-      </c>
-      <c r="U13">
-        <v>0.65934</v>
-      </c>
-      <c r="V13">
-        <v>0.648351</v>
-      </c>
-      <c r="W13">
-        <v>0.142857</v>
-      </c>
-      <c r="X13">
-        <v>1.010989</v>
-      </c>
-      <c r="Y13">
-        <v>0.516483</v>
-      </c>
-      <c r="Z13">
-        <v>0.428571</v>
-      </c>
-      <c r="AA13">
-        <v>0.54945</v>
-      </c>
-      <c r="AB13">
-        <v>0.285714</v>
-      </c>
-      <c r="AC13">
-        <v>1.76923</v>
-      </c>
-      <c r="AD13">
-        <v>0.934065</v>
-      </c>
-      <c r="AE13">
-        <v>3.362637</v>
-      </c>
-      <c r="AF13">
-        <v>0.307692</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0.813186</v>
-      </c>
-      <c r="AI13">
-        <v>0.76923</v>
-      </c>
-      <c r="AJ13">
-        <v>1.131868</v>
-      </c>
-      <c r="AK13">
-        <v>0.835164</v>
-      </c>
-      <c r="AL13">
-        <v>0.824175</v>
-      </c>
-      <c r="AM13">
-        <v>0.153846</v>
-      </c>
-      <c r="AN13">
-        <v>0.252747</v>
-      </c>
-      <c r="AO13">
-        <v>0.285714</v>
-      </c>
-      <c r="AP13">
-        <v>0.120879</v>
-      </c>
-      <c r="AQ13">
-        <v>0.087912</v>
-      </c>
-      <c r="AR13">
-        <v>0.373626</v>
-      </c>
-      <c r="AS13">
-        <v>1.175824</v>
-      </c>
-      <c r="AT13">
-        <v>0.395604</v>
-      </c>
-      <c r="AU13">
-        <v>0.461538</v>
-      </c>
-      <c r="AV13">
-        <v>0.07692300000000001</v>
-      </c>
-      <c r="AW13">
-        <v>0.494505</v>
-      </c>
-      <c r="AX13">
-        <v>96</v>
-      </c>
-      <c r="AY13">
-        <v>7169</v>
-      </c>
-      <c r="AZ13">
-        <v>274</v>
-      </c>
-      <c r="BA13">
-        <v>260</v>
-      </c>
-      <c r="BB13">
-        <v>158</v>
-      </c>
-      <c r="BC13">
-        <v>225</v>
-      </c>
-      <c r="BD13">
-        <v>341</v>
-      </c>
-      <c r="BE13">
-        <v>189</v>
-      </c>
-      <c r="BF13">
-        <v>108</v>
-      </c>
-      <c r="BG13">
-        <v>261</v>
-      </c>
-      <c r="BH13">
-        <v>195</v>
-      </c>
-      <c r="BI13">
-        <v>235</v>
-      </c>
-      <c r="BJ13">
-        <v>155</v>
-      </c>
-      <c r="BK13">
-        <v>234</v>
-      </c>
-      <c r="BL13">
-        <v>290</v>
-      </c>
-      <c r="BM13">
-        <v>232</v>
-      </c>
-      <c r="BN13">
-        <v>274</v>
-      </c>
-      <c r="BO13">
-        <v>140</v>
-      </c>
-      <c r="BP13">
-        <v>523</v>
-      </c>
-      <c r="BQ13">
-        <v>267</v>
-      </c>
-      <c r="BR13">
+      <c r="BU13">
+        <v>223</v>
+      </c>
+      <c r="BV13">
+        <v>144</v>
+      </c>
+      <c r="BW13">
+        <v>97</v>
+      </c>
+      <c r="BX13">
         <v>171</v>
       </c>
-      <c r="BS13">
-        <v>440</v>
-      </c>
-      <c r="BT13">
-        <v>213</v>
-      </c>
-      <c r="BU13">
-        <v>214</v>
-      </c>
-      <c r="BV13">
-        <v>224</v>
-      </c>
-      <c r="BW13">
-        <v>269</v>
-      </c>
-      <c r="BX13">
-        <v>266</v>
-      </c>
       <c r="BY13">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="BZ13">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="CA13">
-        <v>293</v>
+        <v>129</v>
       </c>
       <c r="CB13">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="CC13">
+        <v>170</v>
+      </c>
+      <c r="CD13">
         <v>176</v>
-      </c>
-      <c r="CD13">
-        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:82">
@@ -3972,37 +3972,37 @@
         <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F14">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G14">
-        <v>1375</v>
+        <v>1512</v>
       </c>
       <c r="H14">
-        <v>1375</v>
+        <v>1512</v>
       </c>
       <c r="I14">
-        <v>1477</v>
+        <v>558</v>
       </c>
       <c r="J14">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="L14">
-        <v>1089</v>
+        <v>666</v>
       </c>
       <c r="M14">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="N14">
-        <v>5393</v>
+        <v>6835</v>
       </c>
       <c r="O14">
-        <v>6870</v>
+        <v>7393</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -4014,196 +4014,196 @@
         <v>0</v>
       </c>
       <c r="S14">
+        <v>0.10989</v>
+      </c>
+      <c r="T14">
+        <v>2.516483</v>
+      </c>
+      <c r="U14">
+        <v>0.65934</v>
+      </c>
+      <c r="V14">
+        <v>0.648351</v>
+      </c>
+      <c r="W14">
+        <v>0.142857</v>
+      </c>
+      <c r="X14">
+        <v>1.010989</v>
+      </c>
+      <c r="Y14">
+        <v>0.516483</v>
+      </c>
+      <c r="Z14">
+        <v>0.428571</v>
+      </c>
+      <c r="AA14">
+        <v>0.54945</v>
+      </c>
+      <c r="AB14">
+        <v>0.285714</v>
+      </c>
+      <c r="AC14">
+        <v>1.76923</v>
+      </c>
+      <c r="AD14">
+        <v>0.934065</v>
+      </c>
+      <c r="AE14">
+        <v>3.362637</v>
+      </c>
+      <c r="AF14">
+        <v>0.307692</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0.813186</v>
+      </c>
+      <c r="AI14">
+        <v>0.76923</v>
+      </c>
+      <c r="AJ14">
+        <v>1.131868</v>
+      </c>
+      <c r="AK14">
+        <v>0.835164</v>
+      </c>
+      <c r="AL14">
+        <v>0.824175</v>
+      </c>
+      <c r="AM14">
+        <v>0.153846</v>
+      </c>
+      <c r="AN14">
+        <v>0.252747</v>
+      </c>
+      <c r="AO14">
+        <v>0.285714</v>
+      </c>
+      <c r="AP14">
+        <v>0.120879</v>
+      </c>
+      <c r="AQ14">
+        <v>0.087912</v>
+      </c>
+      <c r="AR14">
+        <v>0.373626</v>
+      </c>
+      <c r="AS14">
+        <v>1.175824</v>
+      </c>
+      <c r="AT14">
+        <v>0.395604</v>
+      </c>
+      <c r="AU14">
+        <v>0.461538</v>
+      </c>
+      <c r="AV14">
         <v>0.07692300000000001</v>
       </c>
-      <c r="T14">
-        <v>0.450549</v>
-      </c>
-      <c r="U14">
-        <v>1.208791</v>
-      </c>
-      <c r="V14">
-        <v>0.164835</v>
-      </c>
-      <c r="W14">
+      <c r="AW14">
         <v>0.494505</v>
       </c>
-      <c r="X14">
-        <v>1.956043</v>
-      </c>
-      <c r="Y14">
-        <v>0.087912</v>
-      </c>
-      <c r="Z14">
-        <v>0.241758</v>
-      </c>
-      <c r="AA14">
-        <v>0.538461</v>
-      </c>
-      <c r="AB14">
-        <v>0.32967</v>
-      </c>
-      <c r="AC14">
-        <v>0.208791</v>
-      </c>
-      <c r="AD14">
-        <v>4.296703</v>
-      </c>
-      <c r="AE14">
-        <v>3.76923</v>
-      </c>
-      <c r="AF14">
-        <v>0.06593400000000001</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>1.483516</v>
-      </c>
-      <c r="AI14">
-        <v>6.076923</v>
-      </c>
-      <c r="AJ14">
-        <v>3.912087</v>
-      </c>
-      <c r="AK14">
-        <v>0.901098</v>
-      </c>
-      <c r="AL14">
-        <v>1.010989</v>
-      </c>
-      <c r="AM14">
-        <v>2.043956</v>
-      </c>
-      <c r="AN14">
-        <v>0.21978</v>
-      </c>
-      <c r="AO14">
-        <v>0.780219</v>
-      </c>
-      <c r="AP14">
-        <v>2.098901</v>
-      </c>
-      <c r="AQ14">
-        <v>0.06593400000000001</v>
-      </c>
-      <c r="AR14">
-        <v>0.285714</v>
-      </c>
-      <c r="AS14">
-        <v>0.65934</v>
-      </c>
-      <c r="AT14">
-        <v>0.384615</v>
-      </c>
-      <c r="AU14">
-        <v>0.472527</v>
-      </c>
-      <c r="AV14">
-        <v>0.010989</v>
-      </c>
-      <c r="AW14">
-        <v>0.846153</v>
-      </c>
       <c r="AX14">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="AY14">
-        <v>6726</v>
+        <v>7169</v>
       </c>
       <c r="AZ14">
-        <v>198</v>
+        <v>274</v>
       </c>
       <c r="BA14">
-        <v>113</v>
+        <v>260</v>
       </c>
       <c r="BB14">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="BC14">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="BD14">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="BE14">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="BF14">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="BG14">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="BH14">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="BI14">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="BJ14">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="BK14">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="BL14">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="BM14">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="BN14">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="BO14">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="BP14">
-        <v>1361</v>
+        <v>523</v>
       </c>
       <c r="BQ14">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="BR14">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="BS14">
-        <v>792</v>
+        <v>440</v>
       </c>
       <c r="BT14">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="BU14">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="BV14">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="BW14">
-        <v>97</v>
+        <v>269</v>
       </c>
       <c r="BX14">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="BY14">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="BZ14">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="CA14">
-        <v>129</v>
+        <v>293</v>
       </c>
       <c r="CB14">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="CC14">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="CD14">
-        <v>176</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:82">
@@ -4226,10 +4226,10 @@
         <v>151</v>
       </c>
       <c r="G15">
-        <v>6306</v>
+        <v>6305</v>
       </c>
       <c r="H15">
-        <v>6306</v>
+        <v>6305</v>
       </c>
       <c r="I15">
         <v>5256</v>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4800</v>
+        <v>960</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -4722,10 +4722,10 @@
         <v>36</v>
       </c>
       <c r="G17">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H17">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I17">
         <v>1277</v>

--- a/Data/html_data_Sales_and_Stock.xlsx
+++ b/Data/html_data_Sales_and_Stock.xlsx
@@ -1994,10 +1994,10 @@
         <v>154</v>
       </c>
       <c r="G6">
-        <v>7059</v>
+        <v>7060</v>
       </c>
       <c r="H6">
-        <v>7059</v>
+        <v>7060</v>
       </c>
       <c r="I6">
         <v>5460</v>
@@ -2490,10 +2490,10 @@
         <v>28</v>
       </c>
       <c r="G8">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H8">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I8">
         <v>894</v>
@@ -4226,10 +4226,10 @@
         <v>151</v>
       </c>
       <c r="G15">
-        <v>6305</v>
+        <v>6306</v>
       </c>
       <c r="H15">
-        <v>6305</v>
+        <v>6306</v>
       </c>
       <c r="I15">
         <v>5256</v>
@@ -4722,10 +4722,10 @@
         <v>36</v>
       </c>
       <c r="G17">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H17">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="I17">
         <v>1277</v>
